--- a/output/경기동로_E_가을_배출량/경기동로_E_가을_배출량_VOC.xlsx
+++ b/output/경기동로_E_가을_배출량/경기동로_E_가을_배출량_VOC.xlsx
@@ -438,28 +438,28 @@
         <v>2024101513</v>
       </c>
       <c r="B2">
-        <v>354.0066081124945</v>
+        <v>208.2593301716464</v>
       </c>
       <c r="C2">
-        <v>0.02800024552960658</v>
+        <v>0.01647232634929927</v>
       </c>
       <c r="D2">
-        <v>10.6321264200024</v>
+        <v>6.254797158550039</v>
       </c>
       <c r="E2">
-        <v>13.89183100020193</v>
+        <v>8.172455973026386</v>
       </c>
       <c r="F2">
-        <v>4.89348009128462</v>
+        <v>2.878796222061974</v>
       </c>
       <c r="G2">
-        <v>320.6183245890149</v>
+        <v>188.6172630383368</v>
       </c>
       <c r="H2">
-        <v>0.9110169875004114</v>
+        <v>0.5359441977747944</v>
       </c>
       <c r="I2">
-        <v>704.9813874460284</v>
+        <v>414.7350590877456</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024101514</v>
       </c>
       <c r="B3">
-        <v>354.0066081124945</v>
+        <v>208.2593301716464</v>
       </c>
       <c r="C3">
-        <v>0.04200036829440987</v>
+        <v>0.02470848952394892</v>
       </c>
       <c r="D3">
-        <v>12.82109362412054</v>
+        <v>7.5425495147221</v>
       </c>
       <c r="E3">
-        <v>13.63457487056856</v>
+        <v>8.021114195748121</v>
       </c>
       <c r="F3">
-        <v>5.806929708324416</v>
+        <v>3.416171516846876</v>
       </c>
       <c r="G3">
-        <v>306.1904999825095</v>
+        <v>180.1294862016119</v>
       </c>
       <c r="H3">
-        <v>0.6073446583336077</v>
+        <v>0.3572961318498629</v>
       </c>
       <c r="I3">
-        <v>693.1090513246454</v>
+        <v>407.7506562219492</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024101515</v>
       </c>
       <c r="B4">
-        <v>419.1878575603759</v>
+        <v>246.604951520763</v>
       </c>
       <c r="C4">
-        <v>0.03500030691200823</v>
+        <v>0.02059040793662409</v>
       </c>
       <c r="D4">
-        <v>14.38464162706208</v>
+        <v>8.462372626273572</v>
       </c>
       <c r="E4">
-        <v>15.69262390763551</v>
+        <v>9.231848413974253</v>
       </c>
       <c r="F4">
-        <v>6.524640121712828</v>
+        <v>3.838394962749298</v>
       </c>
       <c r="G4">
-        <v>185.9586282616288</v>
+        <v>109.3980125622353</v>
       </c>
       <c r="H4">
-        <v>1.822033975000823</v>
+        <v>1.071888395549589</v>
       </c>
       <c r="I4">
-        <v>643.605425760328</v>
+        <v>378.6280588894817</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024101516</v>
       </c>
       <c r="B5">
-        <v>480.0236903783986</v>
+        <v>282.3941981132718</v>
       </c>
       <c r="C5">
-        <v>0.02240019642368526</v>
+        <v>0.01317786107943942</v>
       </c>
       <c r="D5">
-        <v>14.69735122765038</v>
+        <v>8.646337248583874</v>
       </c>
       <c r="E5">
-        <v>16.97890455580235</v>
+        <v>9.988557300365585</v>
       </c>
       <c r="F5">
-        <v>4.730364088241799</v>
+        <v>2.78283634799324</v>
       </c>
       <c r="G5">
-        <v>128.2473298356061</v>
+        <v>75.44690521533475</v>
       </c>
       <c r="H5">
-        <v>0.8097928777781435</v>
+        <v>0.4763948424664838</v>
       </c>
       <c r="I5">
-        <v>645.5098331599008</v>
+        <v>379.7484069290952</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024101517</v>
       </c>
       <c r="B6">
-        <v>578.5198006551975</v>
+        <v>340.3386925963812</v>
       </c>
       <c r="C6">
-        <v>0.04900042967681151</v>
+        <v>0.02882657111127373</v>
       </c>
       <c r="D6">
-        <v>14.69735122765038</v>
+        <v>8.646337248583874</v>
       </c>
       <c r="E6">
-        <v>14.66359938910203</v>
+        <v>8.626481304861189</v>
       </c>
       <c r="F6">
-        <v>3.555928866333492</v>
+        <v>2.091925254698367</v>
       </c>
       <c r="G6">
-        <v>62.52057329485793</v>
+        <v>36.7803662924757</v>
       </c>
       <c r="H6">
-        <v>2.429378633334431</v>
+        <v>1.429184527399452</v>
       </c>
       <c r="I6">
-        <v>676.4356324961526</v>
+        <v>397.9418137955111</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024101518</v>
       </c>
       <c r="B7">
-        <v>542.018300964384</v>
+        <v>318.8651446408762</v>
       </c>
       <c r="C7">
-        <v>0.02660023325312625</v>
+        <v>0.01564871003183431</v>
       </c>
       <c r="D7">
-        <v>10.00670721882579</v>
+        <v>5.886867913929442</v>
       </c>
       <c r="E7">
-        <v>21.09500262993625</v>
+        <v>12.41002573681785</v>
       </c>
       <c r="F7">
-        <v>2.087884838948105</v>
+        <v>1.228286388079775</v>
       </c>
       <c r="G7">
-        <v>32.06183245890151</v>
+        <v>18.86172630383369</v>
       </c>
       <c r="H7">
-        <v>0.6073446583336077</v>
+        <v>0.3572961318498629</v>
       </c>
       <c r="I7">
-        <v>607.9036730025825</v>
+        <v>357.6249958254186</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024101519</v>
       </c>
       <c r="B8">
-        <v>404.413441018856</v>
+        <v>237.9132773482966</v>
       </c>
       <c r="C8">
-        <v>0.02240019642368526</v>
+        <v>0.01317786107943942</v>
       </c>
       <c r="D8">
-        <v>9.381288017649176</v>
+        <v>5.518938669308854</v>
       </c>
       <c r="E8">
-        <v>17.49341681506909</v>
+        <v>10.29124085492212</v>
       </c>
       <c r="F8">
-        <v>1.598536829819643</v>
+        <v>0.9404067658735783</v>
       </c>
       <c r="G8">
-        <v>41.68038219657196</v>
+        <v>24.52024419498379</v>
       </c>
       <c r="H8">
-        <v>0.5061205486113397</v>
+        <v>0.2977467765415525</v>
       </c>
       <c r="I8">
-        <v>475.0955856230009</v>
+        <v>279.4950324710059</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024101520</v>
       </c>
       <c r="B9">
-        <v>319.243275073624</v>
+        <v>187.8083321187843</v>
       </c>
       <c r="C9">
-        <v>0.03080027008256724</v>
+        <v>0.0181195589842292</v>
       </c>
       <c r="D9">
-        <v>6.879611212942732</v>
+        <v>4.047221690826491</v>
       </c>
       <c r="E9">
-        <v>18.52244133360258</v>
+        <v>10.89660796403518</v>
       </c>
       <c r="F9">
-        <v>1.011319218865488</v>
+        <v>0.594951219226141</v>
       </c>
       <c r="G9">
-        <v>32.06183245890151</v>
+        <v>18.86172630383369</v>
       </c>
       <c r="H9">
-        <v>0.3036723291668039</v>
+        <v>0.1786480659249315</v>
       </c>
       <c r="I9">
-        <v>378.0529518971857</v>
+        <v>222.4056069216149</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024101521</v>
       </c>
       <c r="B10">
-        <v>236.1009702223265</v>
+        <v>138.8963617756889</v>
       </c>
       <c r="C10">
-        <v>0.02100018414720494</v>
+        <v>0.01235424476197446</v>
       </c>
       <c r="D10">
-        <v>1.876257603529836</v>
+        <v>1.103787733861771</v>
       </c>
       <c r="E10">
-        <v>14.14908712983529</v>
+        <v>8.323797750304653</v>
       </c>
       <c r="F10">
-        <v>0.9786960182569242</v>
+        <v>0.5757592444123945</v>
       </c>
       <c r="G10">
-        <v>30.45874083595644</v>
+        <v>17.91863998864199</v>
       </c>
       <c r="H10">
-        <v>0.1012241097222679</v>
+        <v>0.05954935530831048</v>
       </c>
       <c r="I10">
-        <v>283.6859761037745</v>
+        <v>166.89025009298</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024101522</v>
       </c>
       <c r="B11">
-        <v>140.2121099234429</v>
+        <v>82.4856921465441</v>
       </c>
       <c r="C11">
-        <v>0.01960017187072461</v>
+        <v>0.01153062844450949</v>
       </c>
       <c r="D11">
-        <v>3.439805606471366</v>
+        <v>2.023610845413245</v>
       </c>
       <c r="E11">
-        <v>8.232196148267809</v>
+        <v>4.842936872904525</v>
       </c>
       <c r="F11">
-        <v>0.9460728176483602</v>
+        <v>0.5565672695986482</v>
       </c>
       <c r="G11">
-        <v>25.64946596712121</v>
+        <v>15.08938104306695</v>
       </c>
       <c r="H11">
-        <v>0.2024482194445359</v>
+        <v>0.119098710616621</v>
       </c>
       <c r="I11">
-        <v>178.701698854267</v>
+        <v>105.1288175165886</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,25 +728,25 @@
         <v>2024101523</v>
       </c>
       <c r="B12">
-        <v>87.7774159231471</v>
+        <v>51.63877008347701</v>
       </c>
       <c r="C12">
-        <v>0.01680014731776395</v>
+        <v>0.009883395809579565</v>
       </c>
       <c r="D12">
-        <v>0.6254192011766118</v>
+        <v>0.3679292446205901</v>
       </c>
       <c r="E12">
-        <v>4.630610333400646</v>
+        <v>2.724151991008796</v>
       </c>
       <c r="F12">
-        <v>0.3588552066942056</v>
+        <v>0.2111117229512114</v>
       </c>
       <c r="G12">
-        <v>17.63400785239583</v>
+        <v>10.37394946710853</v>
       </c>
       <c r="I12">
-        <v>111.0431086641321</v>
+        <v>65.32579590497571</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -754,25 +754,25 @@
         <v>2024101600</v>
       </c>
       <c r="B13">
-        <v>51.56561067432405</v>
+        <v>30.33564711174555</v>
       </c>
       <c r="C13">
-        <v>0.008400073658881974</v>
+        <v>0.004941697904789782</v>
       </c>
       <c r="D13">
-        <v>0.6254192011766118</v>
+        <v>0.3679292446205901</v>
       </c>
       <c r="E13">
-        <v>2.315305166700323</v>
+        <v>1.362075995504398</v>
       </c>
       <c r="F13">
-        <v>0.9460728176483602</v>
+        <v>0.5565672695986482</v>
       </c>
       <c r="G13">
-        <v>25.64946596712121</v>
+        <v>15.08938104306695</v>
       </c>
       <c r="I13">
-        <v>81.11027390062944</v>
+        <v>47.71654236244093</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -780,25 +780,25 @@
         <v>2024101601</v>
       </c>
       <c r="B14">
-        <v>31.28699973498312</v>
+        <v>18.40589824757595</v>
       </c>
       <c r="C14">
-        <v>0.007000061382401644</v>
+        <v>0.004118081587324818</v>
       </c>
       <c r="D14">
-        <v>0.938128801764918</v>
+        <v>0.5518938669308856</v>
       </c>
       <c r="E14">
-        <v>0.257256129633369</v>
+        <v>0.1513417772782664</v>
       </c>
       <c r="F14">
-        <v>0.9786960182569242</v>
+        <v>0.5757592444123945</v>
       </c>
       <c r="G14">
-        <v>20.84019109828598</v>
+        <v>12.26012209749189</v>
       </c>
       <c r="I14">
-        <v>54.30827184430672</v>
+        <v>31.94913331527672</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -806,28 +806,28 @@
         <v>2024101602</v>
       </c>
       <c r="B15">
-        <v>27.52097198910554</v>
+        <v>16.19037345851589</v>
       </c>
       <c r="C15">
-        <v>0.01260011048832296</v>
+        <v>0.007412546857184675</v>
       </c>
       <c r="D15">
-        <v>0.6254192011766118</v>
+        <v>0.3679292446205901</v>
       </c>
       <c r="E15">
-        <v>0.7717683889001071</v>
+        <v>0.4540253318347992</v>
       </c>
       <c r="F15">
-        <v>0.5872176109541544</v>
+        <v>0.3454555466474368</v>
       </c>
       <c r="G15">
-        <v>20.84019109828598</v>
+        <v>12.26012209749189</v>
       </c>
       <c r="H15">
-        <v>0.1012241097222679</v>
+        <v>0.05954935530831048</v>
       </c>
       <c r="I15">
-        <v>50.45939250863299</v>
+        <v>29.6848675812761</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -835,25 +835,25 @@
         <v>2024101603</v>
       </c>
       <c r="B16">
-        <v>24.3343331272091</v>
+        <v>14.31569863700352</v>
       </c>
       <c r="C16">
-        <v>0.004200036829440987</v>
+        <v>0.002470848952394891</v>
       </c>
       <c r="D16">
-        <v>0.6254192011766118</v>
+        <v>0.3679292446205901</v>
       </c>
       <c r="E16">
-        <v>2.058049037066952</v>
+        <v>1.210734218226131</v>
       </c>
       <c r="F16">
-        <v>0.5219712097370263</v>
+        <v>0.3070715970199439</v>
       </c>
       <c r="G16">
-        <v>20.84019109828598</v>
+        <v>12.26012209749189</v>
       </c>
       <c r="I16">
-        <v>48.38416371030512</v>
+        <v>28.46402664331448</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -861,28 +861,28 @@
         <v>2024101604</v>
       </c>
       <c r="B17">
-        <v>62.86369391195685</v>
+        <v>36.98222147892576</v>
       </c>
       <c r="C17">
-        <v>0.01260011048832296</v>
+        <v>0.007412546857184675</v>
       </c>
       <c r="D17">
-        <v>2.501676804706447</v>
+        <v>1.47171697848236</v>
       </c>
       <c r="E17">
-        <v>1.543536777800214</v>
+        <v>0.9080506636695983</v>
       </c>
       <c r="F17">
-        <v>1.272304823734001</v>
+        <v>0.7484870177361133</v>
       </c>
       <c r="G17">
-        <v>36.8711073277367</v>
+        <v>21.69098524940875</v>
       </c>
       <c r="H17">
-        <v>0.1012241097222679</v>
+        <v>0.05954935530831048</v>
       </c>
       <c r="I17">
-        <v>105.1661438661448</v>
+        <v>61.86842329038807</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -890,28 +890,28 @@
         <v>2024101605</v>
       </c>
       <c r="B18">
-        <v>164.546443050652</v>
+        <v>96.80139078354762</v>
       </c>
       <c r="C18">
-        <v>0.009800085935362305</v>
+        <v>0.005765314222254746</v>
       </c>
       <c r="D18">
-        <v>5.628772810589506</v>
+        <v>3.311363201585312</v>
       </c>
       <c r="E18">
-        <v>9.261220666801291</v>
+        <v>5.448303982017592</v>
       </c>
       <c r="F18">
-        <v>1.500667227993951</v>
+        <v>0.8828308414323385</v>
       </c>
       <c r="G18">
-        <v>81.75767277019884</v>
+        <v>48.09740207477589</v>
       </c>
       <c r="H18">
-        <v>0.4048964388890717</v>
+        <v>0.2381974212332419</v>
       </c>
       <c r="I18">
-        <v>263.10947305106</v>
+        <v>154.7852536188143</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -919,28 +919,28 @@
         <v>2024101606</v>
       </c>
       <c r="B19">
-        <v>316.636025095709</v>
+        <v>186.2745072648196</v>
       </c>
       <c r="C19">
-        <v>0.0238002087001656</v>
+        <v>0.01400147739690438</v>
       </c>
       <c r="D19">
-        <v>8.130449615295953</v>
+        <v>4.783080180067672</v>
       </c>
       <c r="E19">
-        <v>18.2651852039692</v>
+        <v>10.74526618675691</v>
       </c>
       <c r="F19">
-        <v>2.870841653553645</v>
+        <v>1.688893783609691</v>
       </c>
       <c r="G19">
-        <v>115.4225968520454</v>
+        <v>67.90221469380126</v>
       </c>
       <c r="H19">
-        <v>0.6073446583336077</v>
+        <v>0.3572961318498629</v>
       </c>
       <c r="I19">
-        <v>461.956243287607</v>
+        <v>271.7652597183019</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -948,28 +948,28 @@
         <v>2024101607</v>
       </c>
       <c r="B20">
-        <v>544.9152453842897</v>
+        <v>320.5693944786145</v>
       </c>
       <c r="C20">
-        <v>0.02660023325312625</v>
+        <v>0.01564871003183431</v>
       </c>
       <c r="D20">
-        <v>10.94483602059071</v>
+        <v>6.438761780860331</v>
       </c>
       <c r="E20">
-        <v>22.12402714846973</v>
+        <v>13.01539284593092</v>
       </c>
       <c r="F20">
-        <v>3.555928866333492</v>
+        <v>2.091925254698367</v>
       </c>
       <c r="G20">
-        <v>161.9122539174525</v>
+        <v>95.25171783436016</v>
       </c>
       <c r="H20">
-        <v>0.6073446583336077</v>
+        <v>0.3572961318498629</v>
       </c>
       <c r="I20">
-        <v>744.086236228723</v>
+        <v>437.740137036346</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -977,28 +977,28 @@
         <v>2024101608</v>
       </c>
       <c r="B21">
-        <v>610.0964948321714</v>
+        <v>358.9150158277314</v>
       </c>
       <c r="C21">
-        <v>0.0294002578060869</v>
+        <v>0.01729594266676424</v>
       </c>
       <c r="D21">
-        <v>14.38464162706208</v>
+        <v>8.462372626273572</v>
       </c>
       <c r="E21">
-        <v>18.77969746323593</v>
+        <v>11.04794974131345</v>
       </c>
       <c r="F21">
-        <v>4.045276875461954</v>
+        <v>2.379804876904564</v>
       </c>
       <c r="G21">
-        <v>193.974086376354</v>
+        <v>114.1134441381938</v>
       </c>
       <c r="H21">
-        <v>4.150188498612985</v>
+        <v>2.441523567640731</v>
       </c>
       <c r="I21">
-        <v>845.4597859307044</v>
+        <v>497.3774067207243</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1006,28 +1006,28 @@
         <v>2024101609</v>
       </c>
       <c r="B22">
-        <v>426.1405241681499</v>
+        <v>250.6951511313356</v>
       </c>
       <c r="C22">
-        <v>0.04620040512385085</v>
+        <v>0.0271793384763438</v>
       </c>
       <c r="D22">
-        <v>14.38464162706208</v>
+        <v>8.462372626273572</v>
       </c>
       <c r="E22">
-        <v>16.97890455580235</v>
+        <v>9.988557300365585</v>
       </c>
       <c r="F22">
-        <v>5.545944103455904</v>
+        <v>3.262635718336904</v>
       </c>
       <c r="G22">
-        <v>346.2677905561364</v>
+        <v>203.7066440814039</v>
       </c>
       <c r="H22">
-        <v>0.6073446583336077</v>
+        <v>0.3572961318498629</v>
       </c>
       <c r="I22">
-        <v>809.971350074064</v>
+        <v>476.4998363280417</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1035,28 +1035,28 @@
         <v>2024101610</v>
       </c>
       <c r="B23">
-        <v>299.8337474602552</v>
+        <v>176.3898582059361</v>
       </c>
       <c r="C23">
-        <v>0.0336002946355279</v>
+        <v>0.01976679161915913</v>
       </c>
       <c r="D23">
-        <v>11.57025522176732</v>
+        <v>6.806691025480919</v>
       </c>
       <c r="E23">
-        <v>13.89183100020193</v>
+        <v>8.172455973026386</v>
       </c>
       <c r="F23">
-        <v>7.013988130841291</v>
+        <v>4.126274584955495</v>
       </c>
       <c r="G23">
-        <v>317.4121413431248</v>
+        <v>186.7310904079533</v>
       </c>
       <c r="H23">
-        <v>1.214689316667215</v>
+        <v>0.7145922636997258</v>
       </c>
       <c r="I23">
-        <v>650.9702527674932</v>
+        <v>382.9607292526711</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1064,28 +1064,28 @@
         <v>2024101611</v>
       </c>
       <c r="B24">
-        <v>337.7837193610216</v>
+        <v>198.7155310803107</v>
       </c>
       <c r="C24">
-        <v>0.05180045422977217</v>
+        <v>0.03047380374620366</v>
       </c>
       <c r="D24">
-        <v>9.381288017649176</v>
+        <v>5.518938669308854</v>
       </c>
       <c r="E24">
-        <v>13.12006261130182</v>
+        <v>7.718430641191586</v>
       </c>
       <c r="F24">
-        <v>6.492016921104265</v>
+        <v>3.819202987935551</v>
       </c>
       <c r="G24">
-        <v>397.5667224903787</v>
+        <v>233.8854061675376</v>
       </c>
       <c r="H24">
-        <v>2.631826852778966</v>
+        <v>1.548283238016072</v>
       </c>
       <c r="I24">
-        <v>767.0274367084643</v>
+        <v>451.2362665880466</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1093,28 +1093,28 @@
         <v>2024101612</v>
       </c>
       <c r="B25">
-        <v>315.4772473277467</v>
+        <v>185.5928073297242</v>
       </c>
       <c r="C25">
-        <v>0.04760041740033119</v>
+        <v>0.02800295479380877</v>
       </c>
       <c r="D25">
-        <v>15.32277042882699</v>
+        <v>9.014266493204461</v>
       </c>
       <c r="E25">
-        <v>17.23616068543573</v>
+        <v>10.13989907764385</v>
       </c>
       <c r="F25">
-        <v>5.578567304064467</v>
+        <v>3.28182769315065</v>
       </c>
       <c r="G25">
-        <v>389.5512643756534</v>
+        <v>229.1699745915792</v>
       </c>
       <c r="H25">
-        <v>1.214689316667215</v>
+        <v>0.7145922636997258</v>
       </c>
       <c r="I25">
-        <v>744.4282998557948</v>
+        <v>437.941370403796</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1122,28 +1122,28 @@
         <v>2024101613</v>
       </c>
       <c r="B26">
-        <v>321.2711361675582</v>
+        <v>189.0013070052012</v>
       </c>
       <c r="C26">
-        <v>0.0294002578060869</v>
+        <v>0.01729594266676424</v>
       </c>
       <c r="D26">
-        <v>10.94483602059071</v>
+        <v>6.438761780860331</v>
       </c>
       <c r="E26">
-        <v>12.09103809276834</v>
+        <v>7.113063532078525</v>
       </c>
       <c r="F26">
-        <v>5.643813705281596</v>
+        <v>3.320211642778142</v>
       </c>
       <c r="G26">
-        <v>426.4223717033901</v>
+        <v>250.860959840988</v>
       </c>
       <c r="H26">
-        <v>1.214689316667215</v>
+        <v>0.7145922636997258</v>
       </c>
       <c r="I26">
-        <v>777.6172852640622</v>
+        <v>457.4661920082726</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1151,28 +1151,28 @@
         <v>2024101614</v>
       </c>
       <c r="B27">
-        <v>364.1459135821647</v>
+        <v>214.2242046037312</v>
       </c>
       <c r="C27">
-        <v>0.02100018414720494</v>
+        <v>0.01235424476197446</v>
       </c>
       <c r="D27">
-        <v>21.57696244059311</v>
+        <v>12.69355893941036</v>
       </c>
       <c r="E27">
-        <v>13.37731874093519</v>
+        <v>7.869772418469852</v>
       </c>
       <c r="F27">
-        <v>5.643813705281596</v>
+        <v>3.320211642778142</v>
       </c>
       <c r="G27">
-        <v>269.3193926547727</v>
+        <v>158.4385009522029</v>
       </c>
       <c r="H27">
-        <v>2.024482194445359</v>
+        <v>1.19098710616621</v>
       </c>
       <c r="I27">
-        <v>676.1088835023398</v>
+        <v>397.7495899075207</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1180,28 +1180,28 @@
         <v>2024101615</v>
       </c>
       <c r="B28">
-        <v>379.2100245656753</v>
+        <v>223.0863037599715</v>
       </c>
       <c r="C28">
-        <v>0.03920034374144922</v>
+        <v>0.02306125688901899</v>
       </c>
       <c r="D28">
-        <v>10.6321264200024</v>
+        <v>6.254797158550039</v>
       </c>
       <c r="E28">
-        <v>12.60555035203508</v>
+        <v>7.415747086635053</v>
       </c>
       <c r="F28">
-        <v>6.035292112584368</v>
+        <v>3.5505153405431</v>
       </c>
       <c r="G28">
-        <v>343.061607310246</v>
+        <v>201.8204714510205</v>
       </c>
       <c r="H28">
-        <v>1.518361645834019</v>
+        <v>0.8932403296246572</v>
       </c>
       <c r="I28">
-        <v>753.1021627501187</v>
+        <v>443.0441363832339</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1209,28 +1209,28 @@
         <v>2024101616</v>
       </c>
       <c r="B29">
-        <v>397.7504688530727</v>
+        <v>233.9935027214981</v>
       </c>
       <c r="C29">
-        <v>0.01960017187072461</v>
+        <v>0.01153062844450949</v>
       </c>
       <c r="D29">
-        <v>16.26089923059191</v>
+        <v>9.566160360135344</v>
       </c>
       <c r="E29">
-        <v>17.23616068543573</v>
+        <v>10.13989907764385</v>
       </c>
       <c r="F29">
-        <v>5.448074501630212</v>
+        <v>3.205059793895665</v>
       </c>
       <c r="G29">
-        <v>258.0977512941571</v>
+        <v>151.8368967458611</v>
       </c>
       <c r="H29">
-        <v>1.518361645834019</v>
+        <v>0.8932403296246572</v>
       </c>
       <c r="I29">
-        <v>696.3313163825925</v>
+        <v>409.6462896571032</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1238,28 +1238,28 @@
         <v>2024101617</v>
       </c>
       <c r="B30">
-        <v>531.5893010527226</v>
+        <v>312.7298452250174</v>
       </c>
       <c r="C30">
-        <v>0.03500030691200823</v>
+        <v>0.02059040793662409</v>
       </c>
       <c r="D30">
-        <v>12.82109362412054</v>
+        <v>7.5425495147221</v>
       </c>
       <c r="E30">
-        <v>16.46439229653562</v>
+        <v>9.685873745809049</v>
       </c>
       <c r="F30">
-        <v>3.555928866333492</v>
+        <v>2.091925254698367</v>
       </c>
       <c r="G30">
-        <v>192.370994753409</v>
+        <v>113.1703578230021</v>
       </c>
       <c r="H30">
-        <v>1.315913426389483</v>
+        <v>0.7741416190080362</v>
       </c>
       <c r="I30">
-        <v>758.1526243264227</v>
+        <v>446.0152835901937</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1267,28 +1267,28 @@
         <v>2024101618</v>
       </c>
       <c r="B31">
-        <v>515.3664123012501</v>
+        <v>303.1860461336817</v>
       </c>
       <c r="C31">
-        <v>0.05180045422977217</v>
+        <v>0.03047380374620366</v>
       </c>
       <c r="D31">
-        <v>10.00670721882579</v>
+        <v>5.886867913929442</v>
       </c>
       <c r="E31">
-        <v>24.95384457443678</v>
+        <v>14.68015239599184</v>
       </c>
       <c r="F31">
-        <v>1.696406431645335</v>
+        <v>0.9979826903148175</v>
       </c>
       <c r="G31">
-        <v>97.78858899964966</v>
+        <v>57.52826522669275</v>
       </c>
       <c r="H31">
-        <v>0.2024482194445359</v>
+        <v>0.119098710616621</v>
       </c>
       <c r="I31">
-        <v>650.0662081994819</v>
+        <v>382.4288868749734</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1296,28 +1296,28 @@
         <v>2024101619</v>
       </c>
       <c r="B32">
-        <v>441.2046351516603</v>
+        <v>259.5572502875758</v>
       </c>
       <c r="C32">
-        <v>0.06300055244161482</v>
+        <v>0.03706273428592337</v>
       </c>
       <c r="D32">
-        <v>7.192320813531038</v>
+        <v>4.231186313136786</v>
       </c>
       <c r="E32">
-        <v>21.86677101883636</v>
+        <v>12.86405106865265</v>
       </c>
       <c r="F32">
-        <v>1.761652832862463</v>
+        <v>1.036366639942311</v>
       </c>
       <c r="G32">
-        <v>81.75767277019884</v>
+        <v>48.09740207477589</v>
       </c>
       <c r="H32">
-        <v>0.8097928777781435</v>
+        <v>0.4763948424664838</v>
       </c>
       <c r="I32">
-        <v>554.6558460173087</v>
+        <v>326.2997139608358</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1325,28 +1325,28 @@
         <v>2024101620</v>
       </c>
       <c r="B33">
-        <v>320.4020528415866</v>
+        <v>188.4900320538796</v>
       </c>
       <c r="C33">
-        <v>0.06580057699457548</v>
+        <v>0.03870996692085329</v>
       </c>
       <c r="D33">
-        <v>8.130449615295953</v>
+        <v>4.783080180067672</v>
       </c>
       <c r="E33">
-        <v>21.86677101883636</v>
+        <v>12.86405106865265</v>
       </c>
       <c r="F33">
-        <v>1.174435221908309</v>
+        <v>0.6909110932948735</v>
       </c>
       <c r="G33">
-        <v>51.29893193424242</v>
+        <v>30.1787620861339</v>
       </c>
       <c r="H33">
-        <v>0.8097928777781435</v>
+        <v>0.4763948424664838</v>
       </c>
       <c r="I33">
-        <v>403.7482340866423</v>
+        <v>237.5219412914161</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1354,25 +1354,25 @@
         <v>2024101621</v>
       </c>
       <c r="B34">
-        <v>239.2876090842229</v>
+        <v>140.7710365972013</v>
       </c>
       <c r="C34">
-        <v>0.05040044195329186</v>
+        <v>0.0296501874287387</v>
       </c>
       <c r="D34">
-        <v>4.690644008824588</v>
+        <v>2.759469334654427</v>
       </c>
       <c r="E34">
-        <v>14.40634325946866</v>
+        <v>8.475139527582922</v>
       </c>
       <c r="F34">
-        <v>0.685087212779847</v>
+        <v>0.4030314710886764</v>
       </c>
       <c r="G34">
-        <v>51.29893193424242</v>
+        <v>30.1787620861339</v>
       </c>
       <c r="I34">
-        <v>310.4190159414916</v>
+        <v>182.6170892040899</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1380,28 +1380,28 @@
         <v>2024101622</v>
       </c>
       <c r="B35">
-        <v>166.8639985865769</v>
+        <v>98.16479065373839</v>
       </c>
       <c r="C35">
-        <v>0.02520022097664593</v>
+        <v>0.01482509371436935</v>
       </c>
       <c r="D35">
-        <v>3.127096005883059</v>
+        <v>1.839646223102951</v>
       </c>
       <c r="E35">
-        <v>11.83378196313498</v>
+        <v>6.961721754800255</v>
       </c>
       <c r="F35">
-        <v>0.7177104133884111</v>
+        <v>0.4222234459024228</v>
       </c>
       <c r="G35">
-        <v>30.45874083595644</v>
+        <v>17.91863998864199</v>
       </c>
       <c r="H35">
-        <v>0.2024482194445359</v>
+        <v>0.119098710616621</v>
       </c>
       <c r="I35">
-        <v>213.2289762453609</v>
+        <v>125.440945870517</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1409,28 +1409,28 @@
         <v>2024101623</v>
       </c>
       <c r="B36">
-        <v>95.30947141490236</v>
+        <v>56.0698196615971</v>
       </c>
       <c r="C36">
-        <v>0.05460047878273284</v>
+        <v>0.03212103638113358</v>
       </c>
       <c r="D36">
-        <v>0.3127096005883059</v>
+        <v>0.1839646223102951</v>
       </c>
       <c r="E36">
-        <v>5.659634851934122</v>
+        <v>3.329519100121862</v>
       </c>
       <c r="F36">
-        <v>2.12050803955667</v>
+        <v>1.247478362893522</v>
       </c>
       <c r="G36">
-        <v>43.28347381951705</v>
+        <v>25.46333051017548</v>
       </c>
       <c r="H36">
-        <v>0.1012241097222679</v>
+        <v>0.05954935530831048</v>
       </c>
       <c r="I36">
-        <v>146.8416223150035</v>
+        <v>86.3857826487877</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1438,28 +1438,28 @@
         <v>2024101700</v>
       </c>
       <c r="B37">
-        <v>50.40683290636173</v>
+        <v>29.65394717665015</v>
       </c>
       <c r="C37">
-        <v>0.02800024552960658</v>
+        <v>0.01647232634929927</v>
       </c>
       <c r="D37">
-        <v>0.3127096005883059</v>
+        <v>0.1839646223102951</v>
       </c>
       <c r="E37">
-        <v>2.058049037066952</v>
+        <v>1.210734218226131</v>
       </c>
       <c r="F37">
-        <v>1.33755122495113</v>
+        <v>0.7868709673636061</v>
       </c>
       <c r="G37">
-        <v>33.66492408184659</v>
+        <v>19.80481261902536</v>
       </c>
       <c r="H37">
-        <v>0.3036723291668039</v>
+        <v>0.1786480659249315</v>
       </c>
       <c r="I37">
-        <v>88.1117394255111</v>
+        <v>51.83544999584977</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1467,25 +1467,25 @@
         <v>2024101701</v>
       </c>
       <c r="B38">
-        <v>36.21180524882308</v>
+        <v>21.30312297173142</v>
       </c>
       <c r="C38">
-        <v>0.007000061382401644</v>
+        <v>0.004118081587324818</v>
       </c>
       <c r="D38">
-        <v>0.6254192011766118</v>
+        <v>0.3679292446205901</v>
       </c>
       <c r="F38">
-        <v>0.8482032158226676</v>
+        <v>0.4989913451574087</v>
       </c>
       <c r="G38">
-        <v>32.06183245890151</v>
+        <v>18.86172630383369</v>
       </c>
       <c r="H38">
-        <v>0.5061205486113397</v>
+        <v>0.2977467765415525</v>
       </c>
       <c r="I38">
-        <v>70.26038073471761</v>
+        <v>41.33363472347199</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1493,25 +1493,25 @@
         <v>2024101702</v>
       </c>
       <c r="B39">
-        <v>26.3621942211432</v>
+        <v>15.50867352342048</v>
       </c>
       <c r="C39">
-        <v>0.009800085935362305</v>
+        <v>0.005765314222254746</v>
       </c>
       <c r="D39">
-        <v>1.563548002941529</v>
+        <v>0.9198231115514754</v>
       </c>
       <c r="F39">
-        <v>0.3914784073027696</v>
+        <v>0.2303036977649579</v>
       </c>
       <c r="G39">
-        <v>28.85564921301134</v>
+        <v>16.97555367345031</v>
       </c>
       <c r="H39">
-        <v>0.1012241097222679</v>
+        <v>0.05954935530831048</v>
       </c>
       <c r="I39">
-        <v>57.28389404005647</v>
+        <v>33.6996686757178</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1519,28 +1519,28 @@
         <v>2024101703</v>
       </c>
       <c r="B40">
-        <v>26.65188866313378</v>
+        <v>15.67909850719433</v>
       </c>
       <c r="C40">
-        <v>0.008400073658881974</v>
+        <v>0.004941697904789782</v>
       </c>
       <c r="D40">
-        <v>0.6254192011766118</v>
+        <v>0.3679292446205901</v>
       </c>
       <c r="E40">
-        <v>2.315305166700323</v>
+        <v>1.362075995504398</v>
       </c>
       <c r="F40">
-        <v>0.6524640121712829</v>
+        <v>0.3838394962749299</v>
       </c>
       <c r="G40">
-        <v>25.64946596712121</v>
+        <v>15.08938104306695</v>
       </c>
       <c r="H40">
-        <v>0.2024482194445359</v>
+        <v>0.119098710616621</v>
       </c>
       <c r="I40">
-        <v>56.10539130340663</v>
+        <v>33.0063646951826</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1548,28 +1548,28 @@
         <v>2024101704</v>
       </c>
       <c r="B41">
-        <v>68.07819386778741</v>
+        <v>40.04987118685511</v>
       </c>
       <c r="C41">
-        <v>0.01120009821184263</v>
+        <v>0.00658893053971971</v>
       </c>
       <c r="D41">
-        <v>1.250838402353224</v>
+        <v>0.7358584892411802</v>
       </c>
       <c r="E41">
-        <v>1.800792907433583</v>
+        <v>1.059392440947865</v>
       </c>
       <c r="F41">
-        <v>0.6198408115627186</v>
+        <v>0.3646475214611833</v>
       </c>
       <c r="G41">
-        <v>40.07729057362687</v>
+        <v>23.5771578797921</v>
       </c>
       <c r="H41">
-        <v>0.1012241097222679</v>
+        <v>0.05954935530831048</v>
       </c>
       <c r="I41">
-        <v>111.9393807706979</v>
+        <v>65.85306580414547</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1577,28 +1577,28 @@
         <v>2024101705</v>
       </c>
       <c r="B42">
-        <v>157.8834708848686</v>
+        <v>92.88161615674905</v>
       </c>
       <c r="C42">
-        <v>0.02240019642368526</v>
+        <v>0.01317786107943942</v>
       </c>
       <c r="D42">
-        <v>4.690644008824588</v>
+        <v>2.759469334654427</v>
       </c>
       <c r="E42">
-        <v>10.29024518533476</v>
+        <v>6.053671091130655</v>
       </c>
       <c r="F42">
-        <v>1.598536829819643</v>
+        <v>0.9404067658735783</v>
       </c>
       <c r="G42">
-        <v>70.5360314095833</v>
+        <v>41.49579786843412</v>
       </c>
       <c r="H42">
-        <v>0.6073446583336077</v>
+        <v>0.3572961318498629</v>
       </c>
       <c r="I42">
-        <v>245.6286731731882</v>
+        <v>144.5014352097711</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1606,28 +1606,28 @@
         <v>2024101706</v>
       </c>
       <c r="B43">
-        <v>311.4215251398784</v>
+        <v>183.2068575568902</v>
       </c>
       <c r="C43">
-        <v>0.0238002087001656</v>
+        <v>0.01400147739690438</v>
       </c>
       <c r="D43">
-        <v>5.316063210001202</v>
+        <v>3.127398579275019</v>
       </c>
       <c r="E43">
-        <v>18.00792907433582</v>
+        <v>10.59392440947865</v>
       </c>
       <c r="F43">
-        <v>2.740348851119388</v>
+        <v>1.612125884354705</v>
       </c>
       <c r="G43">
-        <v>88.17003926197914</v>
+        <v>51.8697473355426</v>
       </c>
       <c r="H43">
-        <v>0.6073446583336077</v>
+        <v>0.3572961318498629</v>
       </c>
       <c r="I43">
-        <v>426.2870504043477</v>
+        <v>250.781351374788</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1635,28 +1635,28 @@
         <v>2024101707</v>
       </c>
       <c r="B44">
-        <v>508.1240512514855</v>
+        <v>298.9254215393352</v>
       </c>
       <c r="C44">
-        <v>0.01960017187072461</v>
+        <v>0.01153062844450949</v>
       </c>
       <c r="D44">
-        <v>11.88296482235563</v>
+        <v>6.990655647791216</v>
       </c>
       <c r="E44">
-        <v>22.3812832781031</v>
+        <v>13.16673462320917</v>
       </c>
       <c r="F44">
-        <v>3.653798468159184</v>
+        <v>2.149501179139607</v>
       </c>
       <c r="G44">
-        <v>144.2782460650567</v>
+        <v>84.87776836725156</v>
       </c>
       <c r="H44">
-        <v>1.214689316667215</v>
+        <v>0.7145922636997258</v>
       </c>
       <c r="I44">
-        <v>691.5546333736979</v>
+        <v>406.8362042488711</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1664,28 +1664,28 @@
         <v>2024101708</v>
       </c>
       <c r="B45">
-        <v>592.7148283127364</v>
+        <v>348.6895168012999</v>
       </c>
       <c r="C45">
-        <v>0.0294002578060869</v>
+        <v>0.01729594266676424</v>
       </c>
       <c r="D45">
-        <v>13.44651282529716</v>
+        <v>7.910478759342692</v>
       </c>
       <c r="E45">
-        <v>19.29420972250267</v>
+        <v>11.35063329586998</v>
       </c>
       <c r="F45">
-        <v>3.653798468159184</v>
+        <v>2.149501179139607</v>
       </c>
       <c r="G45">
-        <v>168.3246204092329</v>
+        <v>99.02406309512686</v>
       </c>
       <c r="H45">
-        <v>2.328154523612163</v>
+        <v>1.369635172091141</v>
       </c>
       <c r="I45">
-        <v>799.7915245193466</v>
+        <v>470.511124245537</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1693,28 +1693,28 @@
         <v>2024101709</v>
       </c>
       <c r="B46">
-        <v>498.8538291077869</v>
+        <v>293.4718220585721</v>
       </c>
       <c r="C46">
-        <v>0.04060035601792954</v>
+        <v>0.02388487320648394</v>
       </c>
       <c r="D46">
-        <v>16.88631843176852</v>
+        <v>9.934089604755934</v>
       </c>
       <c r="E46">
-        <v>17.23616068543573</v>
+        <v>10.13989907764385</v>
       </c>
       <c r="F46">
-        <v>6.981364930232727</v>
+        <v>4.10708261014175</v>
       </c>
       <c r="G46">
-        <v>325.4275994578504</v>
+        <v>191.446521983912</v>
       </c>
       <c r="H46">
-        <v>1.822033975000823</v>
+        <v>1.071888395549589</v>
       </c>
       <c r="I46">
-        <v>867.2479069440931</v>
+        <v>510.1951886037817</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1722,28 +1722,28 @@
         <v>2024101710</v>
       </c>
       <c r="B47">
-        <v>341.8394415488898</v>
+        <v>201.1014808531446</v>
       </c>
       <c r="C47">
-        <v>0.05040044195329186</v>
+        <v>0.0296501874287387</v>
       </c>
       <c r="D47">
-        <v>9.693997618237486</v>
+        <v>5.702903291619153</v>
       </c>
       <c r="E47">
-        <v>15.17811164836878</v>
+        <v>8.929164859417725</v>
       </c>
       <c r="F47">
-        <v>8.547278559443804</v>
+        <v>5.028297401201581</v>
       </c>
       <c r="G47">
-        <v>229.2421020811459</v>
+        <v>134.8613430724108</v>
       </c>
       <c r="H47">
-        <v>1.720809865278555</v>
+        <v>1.012339040241278</v>
       </c>
       <c r="I47">
-        <v>606.2721417633174</v>
+        <v>356.6651787054639</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1751,28 +1751,28 @@
         <v>2024101711</v>
       </c>
       <c r="B48">
-        <v>374.8646079358164</v>
+        <v>220.5299290033637</v>
       </c>
       <c r="C48">
-        <v>0.05740050333569349</v>
+        <v>0.03376826901606352</v>
       </c>
       <c r="D48">
-        <v>23.45322004412295</v>
+        <v>13.79734667327213</v>
       </c>
       <c r="E48">
-        <v>16.20713616690225</v>
+        <v>9.534531968530784</v>
       </c>
       <c r="F48">
-        <v>8.253669753966728</v>
+        <v>4.855569627877863</v>
       </c>
       <c r="G48">
-        <v>299.7781334907291</v>
+        <v>176.357140940845</v>
       </c>
       <c r="H48">
-        <v>2.429378633334431</v>
+        <v>1.429184527399452</v>
       </c>
       <c r="I48">
-        <v>725.0435465282076</v>
+        <v>426.5374710103051</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1780,28 +1780,28 @@
         <v>2024101712</v>
       </c>
       <c r="B49">
-        <v>315.4772473277467</v>
+        <v>185.5928073297242</v>
       </c>
       <c r="C49">
-        <v>0.04760041740033119</v>
+        <v>0.02800295479380877</v>
       </c>
       <c r="D49">
-        <v>15.32277042882699</v>
+        <v>9.014266493204461</v>
       </c>
       <c r="E49">
-        <v>17.23616068543573</v>
+        <v>10.13989907764385</v>
       </c>
       <c r="F49">
-        <v>5.578567304064467</v>
+        <v>3.28182769315065</v>
       </c>
       <c r="G49">
-        <v>389.5512643756534</v>
+        <v>229.1699745915792</v>
       </c>
       <c r="H49">
-        <v>1.214689316667215</v>
+        <v>0.7145922636997258</v>
       </c>
       <c r="I49">
-        <v>744.4282998557948</v>
+        <v>437.941370403796</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_E_가을_배출량/경기동로_E_가을_배출량_VOC.xlsx
+++ b/output/경기동로_E_가을_배출량/경기동로_E_가을_배출량_VOC.xlsx
@@ -438,28 +438,28 @@
         <v>2024101513</v>
       </c>
       <c r="B2">
-        <v>208.2593301716464</v>
+        <v>354.0066081124945</v>
       </c>
       <c r="C2">
-        <v>0.01647232634929927</v>
+        <v>0.02800024552960658</v>
       </c>
       <c r="D2">
-        <v>6.254797158550039</v>
+        <v>10.6321264200024</v>
       </c>
       <c r="E2">
-        <v>8.172455973026386</v>
+        <v>13.89183100020193</v>
       </c>
       <c r="F2">
-        <v>2.878796222061974</v>
+        <v>4.89348009128462</v>
       </c>
       <c r="G2">
-        <v>188.6172630383368</v>
+        <v>320.6183245890149</v>
       </c>
       <c r="H2">
-        <v>0.5359441977747944</v>
+        <v>0.9110169875004114</v>
       </c>
       <c r="I2">
-        <v>414.7350590877456</v>
+        <v>704.9813874460284</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024101514</v>
       </c>
       <c r="B3">
-        <v>208.2593301716464</v>
+        <v>354.0066081124945</v>
       </c>
       <c r="C3">
-        <v>0.02470848952394892</v>
+        <v>0.04200036829440987</v>
       </c>
       <c r="D3">
-        <v>7.5425495147221</v>
+        <v>12.82109362412054</v>
       </c>
       <c r="E3">
-        <v>8.021114195748121</v>
+        <v>13.63457487056856</v>
       </c>
       <c r="F3">
-        <v>3.416171516846876</v>
+        <v>5.806929708324416</v>
       </c>
       <c r="G3">
-        <v>180.1294862016119</v>
+        <v>306.1904999825095</v>
       </c>
       <c r="H3">
-        <v>0.3572961318498629</v>
+        <v>0.6073446583336077</v>
       </c>
       <c r="I3">
-        <v>407.7506562219492</v>
+        <v>693.1090513246454</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024101515</v>
       </c>
       <c r="B4">
-        <v>246.604951520763</v>
+        <v>419.1878575603759</v>
       </c>
       <c r="C4">
-        <v>0.02059040793662409</v>
+        <v>0.03500030691200823</v>
       </c>
       <c r="D4">
-        <v>8.462372626273572</v>
+        <v>14.38464162706208</v>
       </c>
       <c r="E4">
-        <v>9.231848413974253</v>
+        <v>15.69262390763551</v>
       </c>
       <c r="F4">
-        <v>3.838394962749298</v>
+        <v>6.524640121712828</v>
       </c>
       <c r="G4">
-        <v>109.3980125622353</v>
+        <v>185.9586282616288</v>
       </c>
       <c r="H4">
-        <v>1.071888395549589</v>
+        <v>1.822033975000823</v>
       </c>
       <c r="I4">
-        <v>378.6280588894817</v>
+        <v>643.605425760328</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024101516</v>
       </c>
       <c r="B5">
-        <v>282.3941981132718</v>
+        <v>480.0236903783986</v>
       </c>
       <c r="C5">
-        <v>0.01317786107943942</v>
+        <v>0.02240019642368526</v>
       </c>
       <c r="D5">
-        <v>8.646337248583874</v>
+        <v>14.69735122765038</v>
       </c>
       <c r="E5">
-        <v>9.988557300365585</v>
+        <v>16.97890455580235</v>
       </c>
       <c r="F5">
-        <v>2.78283634799324</v>
+        <v>4.730364088241799</v>
       </c>
       <c r="G5">
-        <v>75.44690521533475</v>
+        <v>128.2473298356061</v>
       </c>
       <c r="H5">
-        <v>0.4763948424664838</v>
+        <v>0.8097928777781435</v>
       </c>
       <c r="I5">
-        <v>379.7484069290952</v>
+        <v>645.5098331599008</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024101517</v>
       </c>
       <c r="B6">
-        <v>340.3386925963812</v>
+        <v>578.5198006551975</v>
       </c>
       <c r="C6">
-        <v>0.02882657111127373</v>
+        <v>0.04900042967681151</v>
       </c>
       <c r="D6">
-        <v>8.646337248583874</v>
+        <v>14.69735122765038</v>
       </c>
       <c r="E6">
-        <v>8.626481304861189</v>
+        <v>14.66359938910203</v>
       </c>
       <c r="F6">
-        <v>2.091925254698367</v>
+        <v>3.555928866333492</v>
       </c>
       <c r="G6">
-        <v>36.7803662924757</v>
+        <v>62.52057329485793</v>
       </c>
       <c r="H6">
-        <v>1.429184527399452</v>
+        <v>2.429378633334431</v>
       </c>
       <c r="I6">
-        <v>397.9418137955111</v>
+        <v>676.4356324961526</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024101518</v>
       </c>
       <c r="B7">
-        <v>318.8651446408762</v>
+        <v>542.018300964384</v>
       </c>
       <c r="C7">
-        <v>0.01564871003183431</v>
+        <v>0.02660023325312625</v>
       </c>
       <c r="D7">
-        <v>5.886867913929442</v>
+        <v>10.00670721882579</v>
       </c>
       <c r="E7">
-        <v>12.41002573681785</v>
+        <v>21.09500262993625</v>
       </c>
       <c r="F7">
-        <v>1.228286388079775</v>
+        <v>2.087884838948105</v>
       </c>
       <c r="G7">
-        <v>18.86172630383369</v>
+        <v>32.06183245890151</v>
       </c>
       <c r="H7">
-        <v>0.3572961318498629</v>
+        <v>0.6073446583336077</v>
       </c>
       <c r="I7">
-        <v>357.6249958254186</v>
+        <v>607.9036730025825</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024101519</v>
       </c>
       <c r="B8">
-        <v>237.9132773482966</v>
+        <v>404.413441018856</v>
       </c>
       <c r="C8">
-        <v>0.01317786107943942</v>
+        <v>0.02240019642368526</v>
       </c>
       <c r="D8">
-        <v>5.518938669308854</v>
+        <v>9.381288017649176</v>
       </c>
       <c r="E8">
-        <v>10.29124085492212</v>
+        <v>17.49341681506909</v>
       </c>
       <c r="F8">
-        <v>0.9404067658735783</v>
+        <v>1.598536829819643</v>
       </c>
       <c r="G8">
-        <v>24.52024419498379</v>
+        <v>41.68038219657196</v>
       </c>
       <c r="H8">
-        <v>0.2977467765415525</v>
+        <v>0.5061205486113397</v>
       </c>
       <c r="I8">
-        <v>279.4950324710059</v>
+        <v>475.0955856230009</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024101520</v>
       </c>
       <c r="B9">
-        <v>187.8083321187843</v>
+        <v>319.243275073624</v>
       </c>
       <c r="C9">
-        <v>0.0181195589842292</v>
+        <v>0.03080027008256724</v>
       </c>
       <c r="D9">
-        <v>4.047221690826491</v>
+        <v>6.879611212942732</v>
       </c>
       <c r="E9">
-        <v>10.89660796403518</v>
+        <v>18.52244133360258</v>
       </c>
       <c r="F9">
-        <v>0.594951219226141</v>
+        <v>1.011319218865488</v>
       </c>
       <c r="G9">
-        <v>18.86172630383369</v>
+        <v>32.06183245890151</v>
       </c>
       <c r="H9">
-        <v>0.1786480659249315</v>
+        <v>0.3036723291668039</v>
       </c>
       <c r="I9">
-        <v>222.4056069216149</v>
+        <v>378.0529518971857</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024101521</v>
       </c>
       <c r="B10">
-        <v>138.8963617756889</v>
+        <v>236.1009702223265</v>
       </c>
       <c r="C10">
-        <v>0.01235424476197446</v>
+        <v>0.02100018414720494</v>
       </c>
       <c r="D10">
-        <v>1.103787733861771</v>
+        <v>1.876257603529836</v>
       </c>
       <c r="E10">
-        <v>8.323797750304653</v>
+        <v>14.14908712983529</v>
       </c>
       <c r="F10">
-        <v>0.5757592444123945</v>
+        <v>0.9786960182569242</v>
       </c>
       <c r="G10">
-        <v>17.91863998864199</v>
+        <v>30.45874083595644</v>
       </c>
       <c r="H10">
-        <v>0.05954935530831048</v>
+        <v>0.1012241097222679</v>
       </c>
       <c r="I10">
-        <v>166.89025009298</v>
+        <v>283.6859761037745</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024101522</v>
       </c>
       <c r="B11">
-        <v>82.4856921465441</v>
+        <v>140.2121099234429</v>
       </c>
       <c r="C11">
-        <v>0.01153062844450949</v>
+        <v>0.01960017187072461</v>
       </c>
       <c r="D11">
-        <v>2.023610845413245</v>
+        <v>3.439805606471366</v>
       </c>
       <c r="E11">
-        <v>4.842936872904525</v>
+        <v>8.232196148267809</v>
       </c>
       <c r="F11">
-        <v>0.5565672695986482</v>
+        <v>0.9460728176483602</v>
       </c>
       <c r="G11">
-        <v>15.08938104306695</v>
+        <v>25.64946596712121</v>
       </c>
       <c r="H11">
-        <v>0.119098710616621</v>
+        <v>0.2024482194445359</v>
       </c>
       <c r="I11">
-        <v>105.1288175165886</v>
+        <v>178.701698854267</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,25 +728,25 @@
         <v>2024101523</v>
       </c>
       <c r="B12">
-        <v>51.63877008347701</v>
+        <v>87.7774159231471</v>
       </c>
       <c r="C12">
-        <v>0.009883395809579565</v>
+        <v>0.01680014731776395</v>
       </c>
       <c r="D12">
-        <v>0.3679292446205901</v>
+        <v>0.6254192011766118</v>
       </c>
       <c r="E12">
-        <v>2.724151991008796</v>
+        <v>4.630610333400646</v>
       </c>
       <c r="F12">
-        <v>0.2111117229512114</v>
+        <v>0.3588552066942056</v>
       </c>
       <c r="G12">
-        <v>10.37394946710853</v>
+        <v>17.63400785239583</v>
       </c>
       <c r="I12">
-        <v>65.32579590497571</v>
+        <v>111.0431086641321</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -754,25 +754,25 @@
         <v>2024101600</v>
       </c>
       <c r="B13">
-        <v>30.33564711174555</v>
+        <v>51.56561067432405</v>
       </c>
       <c r="C13">
-        <v>0.004941697904789782</v>
+        <v>0.008400073658881974</v>
       </c>
       <c r="D13">
-        <v>0.3679292446205901</v>
+        <v>0.6254192011766118</v>
       </c>
       <c r="E13">
-        <v>1.362075995504398</v>
+        <v>2.315305166700323</v>
       </c>
       <c r="F13">
-        <v>0.5565672695986482</v>
+        <v>0.9460728176483602</v>
       </c>
       <c r="G13">
-        <v>15.08938104306695</v>
+        <v>25.64946596712121</v>
       </c>
       <c r="I13">
-        <v>47.71654236244093</v>
+        <v>81.11027390062944</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -780,25 +780,25 @@
         <v>2024101601</v>
       </c>
       <c r="B14">
-        <v>18.40589824757595</v>
+        <v>31.28699973498312</v>
       </c>
       <c r="C14">
-        <v>0.004118081587324818</v>
+        <v>0.007000061382401644</v>
       </c>
       <c r="D14">
-        <v>0.5518938669308856</v>
+        <v>0.938128801764918</v>
       </c>
       <c r="E14">
-        <v>0.1513417772782664</v>
+        <v>0.257256129633369</v>
       </c>
       <c r="F14">
-        <v>0.5757592444123945</v>
+        <v>0.9786960182569242</v>
       </c>
       <c r="G14">
-        <v>12.26012209749189</v>
+        <v>20.84019109828598</v>
       </c>
       <c r="I14">
-        <v>31.94913331527672</v>
+        <v>54.30827184430672</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -806,28 +806,28 @@
         <v>2024101602</v>
       </c>
       <c r="B15">
-        <v>16.19037345851589</v>
+        <v>27.52097198910554</v>
       </c>
       <c r="C15">
-        <v>0.007412546857184675</v>
+        <v>0.01260011048832296</v>
       </c>
       <c r="D15">
-        <v>0.3679292446205901</v>
+        <v>0.6254192011766118</v>
       </c>
       <c r="E15">
-        <v>0.4540253318347992</v>
+        <v>0.7717683889001071</v>
       </c>
       <c r="F15">
-        <v>0.3454555466474368</v>
+        <v>0.5872176109541544</v>
       </c>
       <c r="G15">
-        <v>12.26012209749189</v>
+        <v>20.84019109828598</v>
       </c>
       <c r="H15">
-        <v>0.05954935530831048</v>
+        <v>0.1012241097222679</v>
       </c>
       <c r="I15">
-        <v>29.6848675812761</v>
+        <v>50.45939250863299</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -835,25 +835,25 @@
         <v>2024101603</v>
       </c>
       <c r="B16">
-        <v>14.31569863700352</v>
+        <v>24.3343331272091</v>
       </c>
       <c r="C16">
-        <v>0.002470848952394891</v>
+        <v>0.004200036829440987</v>
       </c>
       <c r="D16">
-        <v>0.3679292446205901</v>
+        <v>0.6254192011766118</v>
       </c>
       <c r="E16">
-        <v>1.210734218226131</v>
+        <v>2.058049037066952</v>
       </c>
       <c r="F16">
-        <v>0.3070715970199439</v>
+        <v>0.5219712097370263</v>
       </c>
       <c r="G16">
-        <v>12.26012209749189</v>
+        <v>20.84019109828598</v>
       </c>
       <c r="I16">
-        <v>28.46402664331448</v>
+        <v>48.38416371030512</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -861,28 +861,28 @@
         <v>2024101604</v>
       </c>
       <c r="B17">
-        <v>36.98222147892576</v>
+        <v>62.86369391195685</v>
       </c>
       <c r="C17">
-        <v>0.007412546857184675</v>
+        <v>0.01260011048832296</v>
       </c>
       <c r="D17">
-        <v>1.47171697848236</v>
+        <v>2.501676804706447</v>
       </c>
       <c r="E17">
-        <v>0.9080506636695983</v>
+        <v>1.543536777800214</v>
       </c>
       <c r="F17">
-        <v>0.7484870177361133</v>
+        <v>1.272304823734001</v>
       </c>
       <c r="G17">
-        <v>21.69098524940875</v>
+        <v>36.8711073277367</v>
       </c>
       <c r="H17">
-        <v>0.05954935530831048</v>
+        <v>0.1012241097222679</v>
       </c>
       <c r="I17">
-        <v>61.86842329038807</v>
+        <v>105.1661438661448</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -890,28 +890,28 @@
         <v>2024101605</v>
       </c>
       <c r="B18">
-        <v>96.80139078354762</v>
+        <v>164.546443050652</v>
       </c>
       <c r="C18">
-        <v>0.005765314222254746</v>
+        <v>0.009800085935362305</v>
       </c>
       <c r="D18">
-        <v>3.311363201585312</v>
+        <v>5.628772810589506</v>
       </c>
       <c r="E18">
-        <v>5.448303982017592</v>
+        <v>9.261220666801291</v>
       </c>
       <c r="F18">
-        <v>0.8828308414323385</v>
+        <v>1.500667227993951</v>
       </c>
       <c r="G18">
-        <v>48.09740207477589</v>
+        <v>81.75767277019884</v>
       </c>
       <c r="H18">
-        <v>0.2381974212332419</v>
+        <v>0.4048964388890717</v>
       </c>
       <c r="I18">
-        <v>154.7852536188143</v>
+        <v>263.10947305106</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -919,28 +919,28 @@
         <v>2024101606</v>
       </c>
       <c r="B19">
-        <v>186.2745072648196</v>
+        <v>316.636025095709</v>
       </c>
       <c r="C19">
-        <v>0.01400147739690438</v>
+        <v>0.0238002087001656</v>
       </c>
       <c r="D19">
-        <v>4.783080180067672</v>
+        <v>8.130449615295953</v>
       </c>
       <c r="E19">
-        <v>10.74526618675691</v>
+        <v>18.2651852039692</v>
       </c>
       <c r="F19">
-        <v>1.688893783609691</v>
+        <v>2.870841653553645</v>
       </c>
       <c r="G19">
-        <v>67.90221469380126</v>
+        <v>115.4225968520454</v>
       </c>
       <c r="H19">
-        <v>0.3572961318498629</v>
+        <v>0.6073446583336077</v>
       </c>
       <c r="I19">
-        <v>271.7652597183019</v>
+        <v>461.956243287607</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -948,28 +948,28 @@
         <v>2024101607</v>
       </c>
       <c r="B20">
-        <v>320.5693944786145</v>
+        <v>544.9152453842897</v>
       </c>
       <c r="C20">
-        <v>0.01564871003183431</v>
+        <v>0.02660023325312625</v>
       </c>
       <c r="D20">
-        <v>6.438761780860331</v>
+        <v>10.94483602059071</v>
       </c>
       <c r="E20">
-        <v>13.01539284593092</v>
+        <v>22.12402714846973</v>
       </c>
       <c r="F20">
-        <v>2.091925254698367</v>
+        <v>3.555928866333492</v>
       </c>
       <c r="G20">
-        <v>95.25171783436016</v>
+        <v>161.9122539174525</v>
       </c>
       <c r="H20">
-        <v>0.3572961318498629</v>
+        <v>0.6073446583336077</v>
       </c>
       <c r="I20">
-        <v>437.740137036346</v>
+        <v>744.086236228723</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -977,28 +977,28 @@
         <v>2024101608</v>
       </c>
       <c r="B21">
-        <v>358.9150158277314</v>
+        <v>610.0964948321714</v>
       </c>
       <c r="C21">
-        <v>0.01729594266676424</v>
+        <v>0.0294002578060869</v>
       </c>
       <c r="D21">
-        <v>8.462372626273572</v>
+        <v>14.38464162706208</v>
       </c>
       <c r="E21">
-        <v>11.04794974131345</v>
+        <v>18.77969746323593</v>
       </c>
       <c r="F21">
-        <v>2.379804876904564</v>
+        <v>4.045276875461954</v>
       </c>
       <c r="G21">
-        <v>114.1134441381938</v>
+        <v>193.974086376354</v>
       </c>
       <c r="H21">
-        <v>2.441523567640731</v>
+        <v>4.150188498612985</v>
       </c>
       <c r="I21">
-        <v>497.3774067207243</v>
+        <v>845.4597859307044</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1006,28 +1006,28 @@
         <v>2024101609</v>
       </c>
       <c r="B22">
-        <v>250.6951511313356</v>
+        <v>426.1405241681499</v>
       </c>
       <c r="C22">
-        <v>0.0271793384763438</v>
+        <v>0.04620040512385085</v>
       </c>
       <c r="D22">
-        <v>8.462372626273572</v>
+        <v>14.38464162706208</v>
       </c>
       <c r="E22">
-        <v>9.988557300365585</v>
+        <v>16.97890455580235</v>
       </c>
       <c r="F22">
-        <v>3.262635718336904</v>
+        <v>5.545944103455904</v>
       </c>
       <c r="G22">
-        <v>203.7066440814039</v>
+        <v>346.2677905561364</v>
       </c>
       <c r="H22">
-        <v>0.3572961318498629</v>
+        <v>0.6073446583336077</v>
       </c>
       <c r="I22">
-        <v>476.4998363280417</v>
+        <v>809.971350074064</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1035,28 +1035,28 @@
         <v>2024101610</v>
       </c>
       <c r="B23">
-        <v>176.3898582059361</v>
+        <v>299.8337474602552</v>
       </c>
       <c r="C23">
-        <v>0.01976679161915913</v>
+        <v>0.0336002946355279</v>
       </c>
       <c r="D23">
-        <v>6.806691025480919</v>
+        <v>11.57025522176732</v>
       </c>
       <c r="E23">
-        <v>8.172455973026386</v>
+        <v>13.89183100020193</v>
       </c>
       <c r="F23">
-        <v>4.126274584955495</v>
+        <v>7.013988130841291</v>
       </c>
       <c r="G23">
-        <v>186.7310904079533</v>
+        <v>317.4121413431248</v>
       </c>
       <c r="H23">
-        <v>0.7145922636997258</v>
+        <v>1.214689316667215</v>
       </c>
       <c r="I23">
-        <v>382.9607292526711</v>
+        <v>650.9702527674932</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1064,28 +1064,28 @@
         <v>2024101611</v>
       </c>
       <c r="B24">
-        <v>198.7155310803107</v>
+        <v>337.7837193610216</v>
       </c>
       <c r="C24">
-        <v>0.03047380374620366</v>
+        <v>0.05180045422977217</v>
       </c>
       <c r="D24">
-        <v>5.518938669308854</v>
+        <v>9.381288017649176</v>
       </c>
       <c r="E24">
-        <v>7.718430641191586</v>
+        <v>13.12006261130182</v>
       </c>
       <c r="F24">
-        <v>3.819202987935551</v>
+        <v>6.492016921104265</v>
       </c>
       <c r="G24">
-        <v>233.8854061675376</v>
+        <v>397.5667224903787</v>
       </c>
       <c r="H24">
-        <v>1.548283238016072</v>
+        <v>2.631826852778966</v>
       </c>
       <c r="I24">
-        <v>451.2362665880466</v>
+        <v>767.0274367084643</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1093,28 +1093,28 @@
         <v>2024101612</v>
       </c>
       <c r="B25">
-        <v>185.5928073297242</v>
+        <v>315.4772473277467</v>
       </c>
       <c r="C25">
-        <v>0.02800295479380877</v>
+        <v>0.04760041740033119</v>
       </c>
       <c r="D25">
-        <v>9.014266493204461</v>
+        <v>15.32277042882699</v>
       </c>
       <c r="E25">
-        <v>10.13989907764385</v>
+        <v>17.23616068543573</v>
       </c>
       <c r="F25">
-        <v>3.28182769315065</v>
+        <v>5.578567304064467</v>
       </c>
       <c r="G25">
-        <v>229.1699745915792</v>
+        <v>389.5512643756534</v>
       </c>
       <c r="H25">
-        <v>0.7145922636997258</v>
+        <v>1.214689316667215</v>
       </c>
       <c r="I25">
-        <v>437.941370403796</v>
+        <v>744.4282998557948</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1122,28 +1122,28 @@
         <v>2024101613</v>
       </c>
       <c r="B26">
-        <v>189.0013070052012</v>
+        <v>321.2711361675582</v>
       </c>
       <c r="C26">
-        <v>0.01729594266676424</v>
+        <v>0.0294002578060869</v>
       </c>
       <c r="D26">
-        <v>6.438761780860331</v>
+        <v>10.94483602059071</v>
       </c>
       <c r="E26">
-        <v>7.113063532078525</v>
+        <v>12.09103809276834</v>
       </c>
       <c r="F26">
-        <v>3.320211642778142</v>
+        <v>5.643813705281596</v>
       </c>
       <c r="G26">
-        <v>250.860959840988</v>
+        <v>426.4223717033901</v>
       </c>
       <c r="H26">
-        <v>0.7145922636997258</v>
+        <v>1.214689316667215</v>
       </c>
       <c r="I26">
-        <v>457.4661920082726</v>
+        <v>777.6172852640622</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1151,28 +1151,28 @@
         <v>2024101614</v>
       </c>
       <c r="B27">
-        <v>214.2242046037312</v>
+        <v>364.1459135821647</v>
       </c>
       <c r="C27">
-        <v>0.01235424476197446</v>
+        <v>0.02100018414720494</v>
       </c>
       <c r="D27">
-        <v>12.69355893941036</v>
+        <v>21.57696244059311</v>
       </c>
       <c r="E27">
-        <v>7.869772418469852</v>
+        <v>13.37731874093519</v>
       </c>
       <c r="F27">
-        <v>3.320211642778142</v>
+        <v>5.643813705281596</v>
       </c>
       <c r="G27">
-        <v>158.4385009522029</v>
+        <v>269.3193926547727</v>
       </c>
       <c r="H27">
-        <v>1.19098710616621</v>
+        <v>2.024482194445359</v>
       </c>
       <c r="I27">
-        <v>397.7495899075207</v>
+        <v>676.1088835023398</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1180,28 +1180,28 @@
         <v>2024101615</v>
       </c>
       <c r="B28">
-        <v>223.0863037599715</v>
+        <v>379.2100245656753</v>
       </c>
       <c r="C28">
-        <v>0.02306125688901899</v>
+        <v>0.03920034374144922</v>
       </c>
       <c r="D28">
-        <v>6.254797158550039</v>
+        <v>10.6321264200024</v>
       </c>
       <c r="E28">
-        <v>7.415747086635053</v>
+        <v>12.60555035203508</v>
       </c>
       <c r="F28">
-        <v>3.5505153405431</v>
+        <v>6.035292112584368</v>
       </c>
       <c r="G28">
-        <v>201.8204714510205</v>
+        <v>343.061607310246</v>
       </c>
       <c r="H28">
-        <v>0.8932403296246572</v>
+        <v>1.518361645834019</v>
       </c>
       <c r="I28">
-        <v>443.0441363832339</v>
+        <v>753.1021627501187</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1209,28 +1209,28 @@
         <v>2024101616</v>
       </c>
       <c r="B29">
-        <v>233.9935027214981</v>
+        <v>397.7504688530727</v>
       </c>
       <c r="C29">
-        <v>0.01153062844450949</v>
+        <v>0.01960017187072461</v>
       </c>
       <c r="D29">
-        <v>9.566160360135344</v>
+        <v>16.26089923059191</v>
       </c>
       <c r="E29">
-        <v>10.13989907764385</v>
+        <v>17.23616068543573</v>
       </c>
       <c r="F29">
-        <v>3.205059793895665</v>
+        <v>5.448074501630212</v>
       </c>
       <c r="G29">
-        <v>151.8368967458611</v>
+        <v>258.0977512941571</v>
       </c>
       <c r="H29">
-        <v>0.8932403296246572</v>
+        <v>1.518361645834019</v>
       </c>
       <c r="I29">
-        <v>409.6462896571032</v>
+        <v>696.3313163825925</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1238,28 +1238,28 @@
         <v>2024101617</v>
       </c>
       <c r="B30">
-        <v>312.7298452250174</v>
+        <v>531.5893010527226</v>
       </c>
       <c r="C30">
-        <v>0.02059040793662409</v>
+        <v>0.03500030691200823</v>
       </c>
       <c r="D30">
-        <v>7.5425495147221</v>
+        <v>12.82109362412054</v>
       </c>
       <c r="E30">
-        <v>9.685873745809049</v>
+        <v>16.46439229653562</v>
       </c>
       <c r="F30">
-        <v>2.091925254698367</v>
+        <v>3.555928866333492</v>
       </c>
       <c r="G30">
-        <v>113.1703578230021</v>
+        <v>192.370994753409</v>
       </c>
       <c r="H30">
-        <v>0.7741416190080362</v>
+        <v>1.315913426389483</v>
       </c>
       <c r="I30">
-        <v>446.0152835901937</v>
+        <v>758.1526243264227</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1267,28 +1267,28 @@
         <v>2024101618</v>
       </c>
       <c r="B31">
-        <v>303.1860461336817</v>
+        <v>515.3664123012501</v>
       </c>
       <c r="C31">
-        <v>0.03047380374620366</v>
+        <v>0.05180045422977217</v>
       </c>
       <c r="D31">
-        <v>5.886867913929442</v>
+        <v>10.00670721882579</v>
       </c>
       <c r="E31">
-        <v>14.68015239599184</v>
+        <v>24.95384457443678</v>
       </c>
       <c r="F31">
-        <v>0.9979826903148175</v>
+        <v>1.696406431645335</v>
       </c>
       <c r="G31">
-        <v>57.52826522669275</v>
+        <v>97.78858899964966</v>
       </c>
       <c r="H31">
-        <v>0.119098710616621</v>
+        <v>0.2024482194445359</v>
       </c>
       <c r="I31">
-        <v>382.4288868749734</v>
+        <v>650.0662081994819</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1296,28 +1296,28 @@
         <v>2024101619</v>
       </c>
       <c r="B32">
-        <v>259.5572502875758</v>
+        <v>441.2046351516603</v>
       </c>
       <c r="C32">
-        <v>0.03706273428592337</v>
+        <v>0.06300055244161482</v>
       </c>
       <c r="D32">
-        <v>4.231186313136786</v>
+        <v>7.192320813531038</v>
       </c>
       <c r="E32">
-        <v>12.86405106865265</v>
+        <v>21.86677101883636</v>
       </c>
       <c r="F32">
-        <v>1.036366639942311</v>
+        <v>1.761652832862463</v>
       </c>
       <c r="G32">
-        <v>48.09740207477589</v>
+        <v>81.75767277019884</v>
       </c>
       <c r="H32">
-        <v>0.4763948424664838</v>
+        <v>0.8097928777781435</v>
       </c>
       <c r="I32">
-        <v>326.2997139608358</v>
+        <v>554.6558460173087</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1325,28 +1325,28 @@
         <v>2024101620</v>
       </c>
       <c r="B33">
-        <v>188.4900320538796</v>
+        <v>320.4020528415866</v>
       </c>
       <c r="C33">
-        <v>0.03870996692085329</v>
+        <v>0.06580057699457548</v>
       </c>
       <c r="D33">
-        <v>4.783080180067672</v>
+        <v>8.130449615295953</v>
       </c>
       <c r="E33">
-        <v>12.86405106865265</v>
+        <v>21.86677101883636</v>
       </c>
       <c r="F33">
-        <v>0.6909110932948735</v>
+        <v>1.174435221908309</v>
       </c>
       <c r="G33">
-        <v>30.1787620861339</v>
+        <v>51.29893193424242</v>
       </c>
       <c r="H33">
-        <v>0.4763948424664838</v>
+        <v>0.8097928777781435</v>
       </c>
       <c r="I33">
-        <v>237.5219412914161</v>
+        <v>403.7482340866423</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1354,25 +1354,25 @@
         <v>2024101621</v>
       </c>
       <c r="B34">
-        <v>140.7710365972013</v>
+        <v>239.2876090842229</v>
       </c>
       <c r="C34">
-        <v>0.0296501874287387</v>
+        <v>0.05040044195329186</v>
       </c>
       <c r="D34">
-        <v>2.759469334654427</v>
+        <v>4.690644008824588</v>
       </c>
       <c r="E34">
-        <v>8.475139527582922</v>
+        <v>14.40634325946866</v>
       </c>
       <c r="F34">
-        <v>0.4030314710886764</v>
+        <v>0.685087212779847</v>
       </c>
       <c r="G34">
-        <v>30.1787620861339</v>
+        <v>51.29893193424242</v>
       </c>
       <c r="I34">
-        <v>182.6170892040899</v>
+        <v>310.4190159414916</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1380,28 +1380,28 @@
         <v>2024101622</v>
       </c>
       <c r="B35">
-        <v>98.16479065373839</v>
+        <v>166.8639985865769</v>
       </c>
       <c r="C35">
-        <v>0.01482509371436935</v>
+        <v>0.02520022097664593</v>
       </c>
       <c r="D35">
-        <v>1.839646223102951</v>
+        <v>3.127096005883059</v>
       </c>
       <c r="E35">
-        <v>6.961721754800255</v>
+        <v>11.83378196313498</v>
       </c>
       <c r="F35">
-        <v>0.4222234459024228</v>
+        <v>0.7177104133884111</v>
       </c>
       <c r="G35">
-        <v>17.91863998864199</v>
+        <v>30.45874083595644</v>
       </c>
       <c r="H35">
-        <v>0.119098710616621</v>
+        <v>0.2024482194445359</v>
       </c>
       <c r="I35">
-        <v>125.440945870517</v>
+        <v>213.2289762453609</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1409,28 +1409,28 @@
         <v>2024101623</v>
       </c>
       <c r="B36">
-        <v>56.0698196615971</v>
+        <v>95.30947141490236</v>
       </c>
       <c r="C36">
-        <v>0.03212103638113358</v>
+        <v>0.05460047878273284</v>
       </c>
       <c r="D36">
-        <v>0.1839646223102951</v>
+        <v>0.3127096005883059</v>
       </c>
       <c r="E36">
-        <v>3.329519100121862</v>
+        <v>5.659634851934122</v>
       </c>
       <c r="F36">
-        <v>1.247478362893522</v>
+        <v>2.12050803955667</v>
       </c>
       <c r="G36">
-        <v>25.46333051017548</v>
+        <v>43.28347381951705</v>
       </c>
       <c r="H36">
-        <v>0.05954935530831048</v>
+        <v>0.1012241097222679</v>
       </c>
       <c r="I36">
-        <v>86.3857826487877</v>
+        <v>146.8416223150035</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1438,28 +1438,28 @@
         <v>2024101700</v>
       </c>
       <c r="B37">
-        <v>29.65394717665015</v>
+        <v>50.40683290636173</v>
       </c>
       <c r="C37">
-        <v>0.01647232634929927</v>
+        <v>0.02800024552960658</v>
       </c>
       <c r="D37">
-        <v>0.1839646223102951</v>
+        <v>0.3127096005883059</v>
       </c>
       <c r="E37">
-        <v>1.210734218226131</v>
+        <v>2.058049037066952</v>
       </c>
       <c r="F37">
-        <v>0.7868709673636061</v>
+        <v>1.33755122495113</v>
       </c>
       <c r="G37">
-        <v>19.80481261902536</v>
+        <v>33.66492408184659</v>
       </c>
       <c r="H37">
-        <v>0.1786480659249315</v>
+        <v>0.3036723291668039</v>
       </c>
       <c r="I37">
-        <v>51.83544999584977</v>
+        <v>88.1117394255111</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1467,25 +1467,25 @@
         <v>2024101701</v>
       </c>
       <c r="B38">
-        <v>21.30312297173142</v>
+        <v>36.21180524882308</v>
       </c>
       <c r="C38">
-        <v>0.004118081587324818</v>
+        <v>0.007000061382401644</v>
       </c>
       <c r="D38">
-        <v>0.3679292446205901</v>
+        <v>0.6254192011766118</v>
       </c>
       <c r="F38">
-        <v>0.4989913451574087</v>
+        <v>0.8482032158226676</v>
       </c>
       <c r="G38">
-        <v>18.86172630383369</v>
+        <v>32.06183245890151</v>
       </c>
       <c r="H38">
-        <v>0.2977467765415525</v>
+        <v>0.5061205486113397</v>
       </c>
       <c r="I38">
-        <v>41.33363472347199</v>
+        <v>70.26038073471761</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1493,25 +1493,25 @@
         <v>2024101702</v>
       </c>
       <c r="B39">
-        <v>15.50867352342048</v>
+        <v>26.3621942211432</v>
       </c>
       <c r="C39">
-        <v>0.005765314222254746</v>
+        <v>0.009800085935362305</v>
       </c>
       <c r="D39">
-        <v>0.9198231115514754</v>
+        <v>1.563548002941529</v>
       </c>
       <c r="F39">
-        <v>0.2303036977649579</v>
+        <v>0.3914784073027696</v>
       </c>
       <c r="G39">
-        <v>16.97555367345031</v>
+        <v>28.85564921301134</v>
       </c>
       <c r="H39">
-        <v>0.05954935530831048</v>
+        <v>0.1012241097222679</v>
       </c>
       <c r="I39">
-        <v>33.6996686757178</v>
+        <v>57.28389404005647</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1519,28 +1519,28 @@
         <v>2024101703</v>
       </c>
       <c r="B40">
-        <v>15.67909850719433</v>
+        <v>26.65188866313378</v>
       </c>
       <c r="C40">
-        <v>0.004941697904789782</v>
+        <v>0.008400073658881974</v>
       </c>
       <c r="D40">
-        <v>0.3679292446205901</v>
+        <v>0.6254192011766118</v>
       </c>
       <c r="E40">
-        <v>1.362075995504398</v>
+        <v>2.315305166700323</v>
       </c>
       <c r="F40">
-        <v>0.3838394962749299</v>
+        <v>0.6524640121712829</v>
       </c>
       <c r="G40">
-        <v>15.08938104306695</v>
+        <v>25.64946596712121</v>
       </c>
       <c r="H40">
-        <v>0.119098710616621</v>
+        <v>0.2024482194445359</v>
       </c>
       <c r="I40">
-        <v>33.0063646951826</v>
+        <v>56.10539130340663</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1548,28 +1548,28 @@
         <v>2024101704</v>
       </c>
       <c r="B41">
-        <v>40.04987118685511</v>
+        <v>68.07819386778741</v>
       </c>
       <c r="C41">
-        <v>0.00658893053971971</v>
+        <v>0.01120009821184263</v>
       </c>
       <c r="D41">
-        <v>0.7358584892411802</v>
+        <v>1.250838402353224</v>
       </c>
       <c r="E41">
-        <v>1.059392440947865</v>
+        <v>1.800792907433583</v>
       </c>
       <c r="F41">
-        <v>0.3646475214611833</v>
+        <v>0.6198408115627186</v>
       </c>
       <c r="G41">
-        <v>23.5771578797921</v>
+        <v>40.07729057362687</v>
       </c>
       <c r="H41">
-        <v>0.05954935530831048</v>
+        <v>0.1012241097222679</v>
       </c>
       <c r="I41">
-        <v>65.85306580414547</v>
+        <v>111.9393807706979</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1577,28 +1577,28 @@
         <v>2024101705</v>
       </c>
       <c r="B42">
-        <v>92.88161615674905</v>
+        <v>157.8834708848686</v>
       </c>
       <c r="C42">
-        <v>0.01317786107943942</v>
+        <v>0.02240019642368526</v>
       </c>
       <c r="D42">
-        <v>2.759469334654427</v>
+        <v>4.690644008824588</v>
       </c>
       <c r="E42">
-        <v>6.053671091130655</v>
+        <v>10.29024518533476</v>
       </c>
       <c r="F42">
-        <v>0.9404067658735783</v>
+        <v>1.598536829819643</v>
       </c>
       <c r="G42">
-        <v>41.49579786843412</v>
+        <v>70.5360314095833</v>
       </c>
       <c r="H42">
-        <v>0.3572961318498629</v>
+        <v>0.6073446583336077</v>
       </c>
       <c r="I42">
-        <v>144.5014352097711</v>
+        <v>245.6286731731882</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1606,28 +1606,28 @@
         <v>2024101706</v>
       </c>
       <c r="B43">
-        <v>183.2068575568902</v>
+        <v>311.4215251398784</v>
       </c>
       <c r="C43">
-        <v>0.01400147739690438</v>
+        <v>0.0238002087001656</v>
       </c>
       <c r="D43">
-        <v>3.127398579275019</v>
+        <v>5.316063210001202</v>
       </c>
       <c r="E43">
-        <v>10.59392440947865</v>
+        <v>18.00792907433582</v>
       </c>
       <c r="F43">
-        <v>1.612125884354705</v>
+        <v>2.740348851119388</v>
       </c>
       <c r="G43">
-        <v>51.8697473355426</v>
+        <v>88.17003926197914</v>
       </c>
       <c r="H43">
-        <v>0.3572961318498629</v>
+        <v>0.6073446583336077</v>
       </c>
       <c r="I43">
-        <v>250.781351374788</v>
+        <v>426.2870504043477</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1635,28 +1635,28 @@
         <v>2024101707</v>
       </c>
       <c r="B44">
-        <v>298.9254215393352</v>
+        <v>508.1240512514855</v>
       </c>
       <c r="C44">
-        <v>0.01153062844450949</v>
+        <v>0.01960017187072461</v>
       </c>
       <c r="D44">
-        <v>6.990655647791216</v>
+        <v>11.88296482235563</v>
       </c>
       <c r="E44">
-        <v>13.16673462320917</v>
+        <v>22.3812832781031</v>
       </c>
       <c r="F44">
-        <v>2.149501179139607</v>
+        <v>3.653798468159184</v>
       </c>
       <c r="G44">
-        <v>84.87776836725156</v>
+        <v>144.2782460650567</v>
       </c>
       <c r="H44">
-        <v>0.7145922636997258</v>
+        <v>1.214689316667215</v>
       </c>
       <c r="I44">
-        <v>406.8362042488711</v>
+        <v>691.5546333736979</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1664,28 +1664,28 @@
         <v>2024101708</v>
       </c>
       <c r="B45">
-        <v>348.6895168012999</v>
+        <v>592.7148283127364</v>
       </c>
       <c r="C45">
-        <v>0.01729594266676424</v>
+        <v>0.0294002578060869</v>
       </c>
       <c r="D45">
-        <v>7.910478759342692</v>
+        <v>13.44651282529716</v>
       </c>
       <c r="E45">
-        <v>11.35063329586998</v>
+        <v>19.29420972250267</v>
       </c>
       <c r="F45">
-        <v>2.149501179139607</v>
+        <v>3.653798468159184</v>
       </c>
       <c r="G45">
-        <v>99.02406309512686</v>
+        <v>168.3246204092329</v>
       </c>
       <c r="H45">
-        <v>1.369635172091141</v>
+        <v>2.328154523612163</v>
       </c>
       <c r="I45">
-        <v>470.511124245537</v>
+        <v>799.7915245193466</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1693,28 +1693,28 @@
         <v>2024101709</v>
       </c>
       <c r="B46">
-        <v>293.4718220585721</v>
+        <v>498.8538291077869</v>
       </c>
       <c r="C46">
-        <v>0.02388487320648394</v>
+        <v>0.04060035601792954</v>
       </c>
       <c r="D46">
-        <v>9.934089604755934</v>
+        <v>16.88631843176852</v>
       </c>
       <c r="E46">
-        <v>10.13989907764385</v>
+        <v>17.23616068543573</v>
       </c>
       <c r="F46">
-        <v>4.10708261014175</v>
+        <v>6.981364930232727</v>
       </c>
       <c r="G46">
-        <v>191.446521983912</v>
+        <v>325.4275994578504</v>
       </c>
       <c r="H46">
-        <v>1.071888395549589</v>
+        <v>1.822033975000823</v>
       </c>
       <c r="I46">
-        <v>510.1951886037817</v>
+        <v>867.2479069440931</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1722,28 +1722,28 @@
         <v>2024101710</v>
       </c>
       <c r="B47">
-        <v>201.1014808531446</v>
+        <v>341.8394415488898</v>
       </c>
       <c r="C47">
-        <v>0.0296501874287387</v>
+        <v>0.05040044195329186</v>
       </c>
       <c r="D47">
-        <v>5.702903291619153</v>
+        <v>9.693997618237486</v>
       </c>
       <c r="E47">
-        <v>8.929164859417725</v>
+        <v>15.17811164836878</v>
       </c>
       <c r="F47">
-        <v>5.028297401201581</v>
+        <v>8.547278559443804</v>
       </c>
       <c r="G47">
-        <v>134.8613430724108</v>
+        <v>229.2421020811459</v>
       </c>
       <c r="H47">
-        <v>1.012339040241278</v>
+        <v>1.720809865278555</v>
       </c>
       <c r="I47">
-        <v>356.6651787054639</v>
+        <v>606.2721417633174</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1751,28 +1751,28 @@
         <v>2024101711</v>
       </c>
       <c r="B48">
-        <v>220.5299290033637</v>
+        <v>374.8646079358164</v>
       </c>
       <c r="C48">
-        <v>0.03376826901606352</v>
+        <v>0.05740050333569349</v>
       </c>
       <c r="D48">
-        <v>13.79734667327213</v>
+        <v>23.45322004412295</v>
       </c>
       <c r="E48">
-        <v>9.534531968530784</v>
+        <v>16.20713616690225</v>
       </c>
       <c r="F48">
-        <v>4.855569627877863</v>
+        <v>8.253669753966728</v>
       </c>
       <c r="G48">
-        <v>176.357140940845</v>
+        <v>299.7781334907291</v>
       </c>
       <c r="H48">
-        <v>1.429184527399452</v>
+        <v>2.429378633334431</v>
       </c>
       <c r="I48">
-        <v>426.5374710103051</v>
+        <v>725.0435465282076</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1780,28 +1780,28 @@
         <v>2024101712</v>
       </c>
       <c r="B49">
-        <v>185.5928073297242</v>
+        <v>315.4772473277467</v>
       </c>
       <c r="C49">
-        <v>0.02800295479380877</v>
+        <v>0.04760041740033119</v>
       </c>
       <c r="D49">
-        <v>9.014266493204461</v>
+        <v>15.32277042882699</v>
       </c>
       <c r="E49">
-        <v>10.13989907764385</v>
+        <v>17.23616068543573</v>
       </c>
       <c r="F49">
-        <v>3.28182769315065</v>
+        <v>5.578567304064467</v>
       </c>
       <c r="G49">
-        <v>229.1699745915792</v>
+        <v>389.5512643756534</v>
       </c>
       <c r="H49">
-        <v>0.7145922636997258</v>
+        <v>1.214689316667215</v>
       </c>
       <c r="I49">
-        <v>437.941370403796</v>
+        <v>744.4282998557948</v>
       </c>
     </row>
   </sheetData>
